--- a/AppTec/practice/TeamB/テスト関連/TeamBエビデンス障害解決版.xlsx
+++ b/AppTec/practice/TeamB/テスト関連/TeamBエビデンス障害解決版.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1824" windowWidth="15252" windowHeight="10140"/>
+    <workbookView xWindow="0" yWindow="1830" windowWidth="15255" windowHeight="10140" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="シナリオ" sheetId="29" r:id="rId1"/>
@@ -1527,7 +1527,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1537,6 +1537,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1676,7 +1682,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1794,6 +1800,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1851,18 +1866,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1872,11 +1875,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -5148,72 +5157,72 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FV48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
+    <sheetView zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
       <selection sqref="A1:AH1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.125" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="6" width="3.69921875" style="1" customWidth="1"/>
-    <col min="7" max="8" width="3.69921875" style="18" customWidth="1"/>
-    <col min="9" max="35" width="3.69921875" style="1" customWidth="1"/>
-    <col min="36" max="38" width="3.69921875" style="19" customWidth="1"/>
-    <col min="39" max="42" width="3.59765625" style="1" customWidth="1"/>
-    <col min="43" max="16384" width="8.09765625" style="1"/>
+    <col min="1" max="6" width="3.75" style="1" customWidth="1"/>
+    <col min="7" max="8" width="3.75" style="18" customWidth="1"/>
+    <col min="9" max="35" width="3.75" style="1" customWidth="1"/>
+    <col min="36" max="38" width="3.75" style="19" customWidth="1"/>
+    <col min="39" max="42" width="3.625" style="1" customWidth="1"/>
+    <col min="43" max="16384" width="8.125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:178" ht="12.75" customHeight="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39"/>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
-      <c r="Z1" s="39"/>
-      <c r="AA1" s="39"/>
-      <c r="AB1" s="39"/>
-      <c r="AC1" s="39"/>
-      <c r="AD1" s="39"/>
-      <c r="AE1" s="39"/>
-      <c r="AF1" s="39"/>
-      <c r="AG1" s="39"/>
-      <c r="AH1" s="39"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="42"/>
+      <c r="V1" s="42"/>
+      <c r="W1" s="42"/>
+      <c r="X1" s="42"/>
+      <c r="Y1" s="42"/>
+      <c r="Z1" s="42"/>
+      <c r="AA1" s="42"/>
+      <c r="AB1" s="42"/>
+      <c r="AC1" s="42"/>
+      <c r="AD1" s="42"/>
+      <c r="AE1" s="42"/>
+      <c r="AF1" s="42"/>
+      <c r="AG1" s="42"/>
+      <c r="AH1" s="42"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
     </row>
     <row r="2" spans="1:178" ht="13.5" customHeight="1">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="42"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="45"/>
       <c r="I2" s="2"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -5235,30 +5244,30 @@
       <c r="AA2" s="3"/>
       <c r="AB2" s="3"/>
       <c r="AC2" s="3"/>
-      <c r="AD2" s="43" t="s">
+      <c r="AD2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="44"/>
-      <c r="AF2" s="45"/>
-      <c r="AG2" s="40" t="s">
+      <c r="AE2" s="47"/>
+      <c r="AF2" s="48"/>
+      <c r="AG2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="AH2" s="42"/>
+      <c r="AH2" s="45"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:178" ht="13.5" customHeight="1">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="48"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="51"/>
       <c r="I3" s="4"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
@@ -5280,28 +5289,28 @@
       <c r="AA3" s="6"/>
       <c r="AB3" s="6"/>
       <c r="AC3" s="6"/>
-      <c r="AD3" s="52" t="s">
+      <c r="AD3" s="55" t="s">
         <v>136</v>
       </c>
-      <c r="AE3" s="53"/>
-      <c r="AF3" s="54"/>
-      <c r="AG3" s="52" t="s">
+      <c r="AE3" s="56"/>
+      <c r="AF3" s="57"/>
+      <c r="AG3" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="AH3" s="54"/>
+      <c r="AH3" s="57"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
     </row>
     <row r="4" spans="1:178" ht="12">
-      <c r="A4" s="49"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="51"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="54"/>
       <c r="I4" s="7"/>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -5323,59 +5332,59 @@
       <c r="AA4" s="9"/>
       <c r="AB4" s="9"/>
       <c r="AC4" s="9"/>
-      <c r="AD4" s="55"/>
-      <c r="AE4" s="56"/>
-      <c r="AF4" s="57"/>
-      <c r="AG4" s="55"/>
-      <c r="AH4" s="57"/>
+      <c r="AD4" s="58"/>
+      <c r="AE4" s="59"/>
+      <c r="AF4" s="60"/>
+      <c r="AG4" s="58"/>
+      <c r="AH4" s="60"/>
       <c r="AJ4" s="1"/>
       <c r="AK4" s="1"/>
       <c r="AL4" s="1"/>
     </row>
     <row r="5" spans="1:178" s="12" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="58" t="s">
+      <c r="B5" s="40"/>
+      <c r="C5" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="58" t="s">
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="60"/>
-      <c r="M5" s="60"/>
-      <c r="N5" s="60"/>
-      <c r="O5" s="60"/>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="60"/>
-      <c r="R5" s="60"/>
-      <c r="S5" s="60"/>
-      <c r="T5" s="60"/>
-      <c r="U5" s="60"/>
-      <c r="V5" s="60"/>
-      <c r="W5" s="60"/>
-      <c r="X5" s="60"/>
-      <c r="Y5" s="60"/>
-      <c r="Z5" s="60"/>
-      <c r="AA5" s="60"/>
-      <c r="AB5" s="60"/>
-      <c r="AC5" s="59"/>
-      <c r="AD5" s="58" t="s">
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="41"/>
+      <c r="Q5" s="41"/>
+      <c r="R5" s="41"/>
+      <c r="S5" s="41"/>
+      <c r="T5" s="41"/>
+      <c r="U5" s="41"/>
+      <c r="V5" s="41"/>
+      <c r="W5" s="41"/>
+      <c r="X5" s="41"/>
+      <c r="Y5" s="41"/>
+      <c r="Z5" s="41"/>
+      <c r="AA5" s="41"/>
+      <c r="AB5" s="41"/>
+      <c r="AC5" s="40"/>
+      <c r="AD5" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="AE5" s="59"/>
-      <c r="AF5" s="58" t="s">
+      <c r="AE5" s="40"/>
+      <c r="AF5" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="AG5" s="59"/>
+      <c r="AG5" s="40"/>
       <c r="AH5" s="28" t="s">
         <v>9</v>
       </c>
@@ -7477,126 +7486,63 @@
     </row>
   </sheetData>
   <mergeCells count="190">
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:H47"/>
-    <mergeCell ref="J47:AC47"/>
-    <mergeCell ref="AD47:AE47"/>
-    <mergeCell ref="AF47:AG47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:H48"/>
-    <mergeCell ref="J48:AC48"/>
-    <mergeCell ref="AD48:AE48"/>
-    <mergeCell ref="AF48:AG48"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:H45"/>
-    <mergeCell ref="J45:AC45"/>
-    <mergeCell ref="AD45:AE45"/>
-    <mergeCell ref="AF45:AG45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:H46"/>
-    <mergeCell ref="J46:AC46"/>
-    <mergeCell ref="AD46:AE46"/>
-    <mergeCell ref="AF46:AG46"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:H43"/>
-    <mergeCell ref="J43:AC43"/>
-    <mergeCell ref="AD43:AE43"/>
-    <mergeCell ref="AF43:AG43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:H44"/>
-    <mergeCell ref="J44:AC44"/>
-    <mergeCell ref="AD44:AE44"/>
-    <mergeCell ref="AF44:AG44"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:H41"/>
-    <mergeCell ref="J41:AC41"/>
-    <mergeCell ref="AD41:AE41"/>
-    <mergeCell ref="AF41:AG41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:H42"/>
-    <mergeCell ref="J42:AC42"/>
-    <mergeCell ref="AD42:AE42"/>
-    <mergeCell ref="AF42:AG42"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:H39"/>
-    <mergeCell ref="J39:AC39"/>
-    <mergeCell ref="AD39:AE39"/>
-    <mergeCell ref="AF39:AG39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:H40"/>
-    <mergeCell ref="J40:AC40"/>
-    <mergeCell ref="AD40:AE40"/>
-    <mergeCell ref="AF40:AG40"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:H37"/>
-    <mergeCell ref="J37:AC37"/>
-    <mergeCell ref="AD37:AE37"/>
-    <mergeCell ref="AF37:AG37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:H38"/>
-    <mergeCell ref="J38:AC38"/>
-    <mergeCell ref="AD38:AE38"/>
-    <mergeCell ref="AF38:AG38"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:H35"/>
-    <mergeCell ref="J35:AC35"/>
-    <mergeCell ref="AD35:AE35"/>
-    <mergeCell ref="AF35:AG35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:H36"/>
-    <mergeCell ref="J36:AC36"/>
-    <mergeCell ref="AD36:AE36"/>
-    <mergeCell ref="AF36:AG36"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:H33"/>
-    <mergeCell ref="J33:AC33"/>
-    <mergeCell ref="AD33:AE33"/>
-    <mergeCell ref="AF33:AG33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:H34"/>
-    <mergeCell ref="J34:AC34"/>
-    <mergeCell ref="AD34:AE34"/>
-    <mergeCell ref="AF34:AG34"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:H31"/>
-    <mergeCell ref="J31:AC31"/>
-    <mergeCell ref="AD31:AE31"/>
-    <mergeCell ref="AF31:AG31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:H32"/>
-    <mergeCell ref="J32:AC32"/>
-    <mergeCell ref="AD32:AE32"/>
-    <mergeCell ref="AF32:AG32"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:H29"/>
-    <mergeCell ref="J29:AC29"/>
-    <mergeCell ref="AD29:AE29"/>
-    <mergeCell ref="AF29:AG29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:H30"/>
-    <mergeCell ref="J30:AC30"/>
-    <mergeCell ref="AD30:AE30"/>
-    <mergeCell ref="AF30:AG30"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:H27"/>
-    <mergeCell ref="J27:AC27"/>
-    <mergeCell ref="AD27:AE27"/>
-    <mergeCell ref="AF27:AG27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:H28"/>
-    <mergeCell ref="J28:AC28"/>
-    <mergeCell ref="AD28:AE28"/>
-    <mergeCell ref="AF28:AG28"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:H25"/>
-    <mergeCell ref="J25:AC25"/>
-    <mergeCell ref="AD25:AE25"/>
-    <mergeCell ref="AF25:AG25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:H26"/>
-    <mergeCell ref="J26:AC26"/>
-    <mergeCell ref="AD26:AE26"/>
-    <mergeCell ref="AF26:AG26"/>
+    <mergeCell ref="AD5:AE5"/>
+    <mergeCell ref="AF5:AG5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="J6:AC6"/>
+    <mergeCell ref="A1:AH1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="AD2:AF2"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="A3:H4"/>
+    <mergeCell ref="AD3:AF4"/>
+    <mergeCell ref="AG3:AH4"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="J7:AC7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="J8:AC8"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="I5:AC5"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="J12:AC12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="J13:AC13"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="J10:AC10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="J11:AC11"/>
+    <mergeCell ref="AD19:AE19"/>
+    <mergeCell ref="AF19:AG19"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="J16:AC16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="J17:AC17"/>
+    <mergeCell ref="J14:AC14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="J15:AC15"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="J20:AC20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="J21:AC21"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="J18:AC18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="J19:AC19"/>
     <mergeCell ref="AD23:AE23"/>
     <mergeCell ref="AF23:AG23"/>
     <mergeCell ref="A24:B24"/>
@@ -7610,63 +7556,126 @@
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="C23:H23"/>
     <mergeCell ref="J23:AC23"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="J20:AC20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="J21:AC21"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:H18"/>
-    <mergeCell ref="J18:AC18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="J19:AC19"/>
-    <mergeCell ref="AD19:AE19"/>
-    <mergeCell ref="AF19:AG19"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="J16:AC16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="J17:AC17"/>
-    <mergeCell ref="J14:AC14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="J15:AC15"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="J12:AC12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="J13:AC13"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="J10:AC10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="J11:AC11"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="J7:AC7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="J8:AC8"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="I5:AC5"/>
-    <mergeCell ref="AD5:AE5"/>
-    <mergeCell ref="AF5:AG5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="J6:AC6"/>
-    <mergeCell ref="A1:AH1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="AD2:AF2"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="A3:H4"/>
-    <mergeCell ref="AD3:AF4"/>
-    <mergeCell ref="AG3:AH4"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="J25:AC25"/>
+    <mergeCell ref="AD25:AE25"/>
+    <mergeCell ref="AF25:AG25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:H26"/>
+    <mergeCell ref="J26:AC26"/>
+    <mergeCell ref="AD26:AE26"/>
+    <mergeCell ref="AF26:AG26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:H27"/>
+    <mergeCell ref="J27:AC27"/>
+    <mergeCell ref="AD27:AE27"/>
+    <mergeCell ref="AF27:AG27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:H28"/>
+    <mergeCell ref="J28:AC28"/>
+    <mergeCell ref="AD28:AE28"/>
+    <mergeCell ref="AF28:AG28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:H29"/>
+    <mergeCell ref="J29:AC29"/>
+    <mergeCell ref="AD29:AE29"/>
+    <mergeCell ref="AF29:AG29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:H30"/>
+    <mergeCell ref="J30:AC30"/>
+    <mergeCell ref="AD30:AE30"/>
+    <mergeCell ref="AF30:AG30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:H31"/>
+    <mergeCell ref="J31:AC31"/>
+    <mergeCell ref="AD31:AE31"/>
+    <mergeCell ref="AF31:AG31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:H32"/>
+    <mergeCell ref="J32:AC32"/>
+    <mergeCell ref="AD32:AE32"/>
+    <mergeCell ref="AF32:AG32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:H33"/>
+    <mergeCell ref="J33:AC33"/>
+    <mergeCell ref="AD33:AE33"/>
+    <mergeCell ref="AF33:AG33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:H34"/>
+    <mergeCell ref="J34:AC34"/>
+    <mergeCell ref="AD34:AE34"/>
+    <mergeCell ref="AF34:AG34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:H35"/>
+    <mergeCell ref="J35:AC35"/>
+    <mergeCell ref="AD35:AE35"/>
+    <mergeCell ref="AF35:AG35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:H36"/>
+    <mergeCell ref="J36:AC36"/>
+    <mergeCell ref="AD36:AE36"/>
+    <mergeCell ref="AF36:AG36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:H37"/>
+    <mergeCell ref="J37:AC37"/>
+    <mergeCell ref="AD37:AE37"/>
+    <mergeCell ref="AF37:AG37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:H38"/>
+    <mergeCell ref="J38:AC38"/>
+    <mergeCell ref="AD38:AE38"/>
+    <mergeCell ref="AF38:AG38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:H39"/>
+    <mergeCell ref="J39:AC39"/>
+    <mergeCell ref="AD39:AE39"/>
+    <mergeCell ref="AF39:AG39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:H40"/>
+    <mergeCell ref="J40:AC40"/>
+    <mergeCell ref="AD40:AE40"/>
+    <mergeCell ref="AF40:AG40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:H41"/>
+    <mergeCell ref="J41:AC41"/>
+    <mergeCell ref="AD41:AE41"/>
+    <mergeCell ref="AF41:AG41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:H42"/>
+    <mergeCell ref="J42:AC42"/>
+    <mergeCell ref="AD42:AE42"/>
+    <mergeCell ref="AF42:AG42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:H43"/>
+    <mergeCell ref="J43:AC43"/>
+    <mergeCell ref="AD43:AE43"/>
+    <mergeCell ref="AF43:AG43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:H44"/>
+    <mergeCell ref="J44:AC44"/>
+    <mergeCell ref="AD44:AE44"/>
+    <mergeCell ref="AF44:AG44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:H45"/>
+    <mergeCell ref="J45:AC45"/>
+    <mergeCell ref="AD45:AE45"/>
+    <mergeCell ref="AF45:AG45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:H46"/>
+    <mergeCell ref="J46:AC46"/>
+    <mergeCell ref="AD46:AE46"/>
+    <mergeCell ref="AF46:AG46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="J47:AC47"/>
+    <mergeCell ref="AD47:AE47"/>
+    <mergeCell ref="AF47:AG47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:H48"/>
+    <mergeCell ref="J48:AC48"/>
+    <mergeCell ref="AD48:AE48"/>
+    <mergeCell ref="AF48:AG48"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -7681,63 +7690,63 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:J65"/>
   <sheetViews>
-    <sheetView zoomScale="77" zoomScaleNormal="83" workbookViewId="0">
+    <sheetView topLeftCell="A49" zoomScale="77" zoomScaleNormal="83" workbookViewId="0">
       <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="61"/>
+      <c r="B2" s="64"/>
       <c r="C2" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="61" t="s">
+      <c r="D2" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61" t="s">
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="61"/>
+      <c r="H2" s="64"/>
       <c r="I2" s="20" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="61"/>
+      <c r="B3" s="64"/>
       <c r="C3" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="61" t="s">
+      <c r="D3" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61" t="s">
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="H3" s="61"/>
+      <c r="H3" s="64"/>
       <c r="I3" s="20" t="s">
         <v>129</v>
       </c>
@@ -7749,28 +7758,28 @@
       <c r="B4" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="64"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="63"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="22"/>
@@ -7974,17 +7983,17 @@
       <c r="I23" s="24"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="62" t="s">
+      <c r="A24" s="61" t="s">
         <v>131</v>
       </c>
-      <c r="B24" s="63"/>
-      <c r="C24" s="63"/>
-      <c r="D24" s="63"/>
-      <c r="E24" s="63"/>
-      <c r="F24" s="63"/>
-      <c r="G24" s="63"/>
-      <c r="H24" s="63"/>
-      <c r="I24" s="64"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="63"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="22"/>
@@ -8185,17 +8194,17 @@
       <c r="I42" s="24"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="62" t="s">
+      <c r="A43" s="61" t="s">
         <v>132</v>
       </c>
-      <c r="B43" s="63"/>
-      <c r="C43" s="63"/>
-      <c r="D43" s="63"/>
-      <c r="E43" s="63"/>
-      <c r="F43" s="63"/>
-      <c r="G43" s="63"/>
-      <c r="H43" s="63"/>
-      <c r="I43" s="64"/>
+      <c r="B43" s="62"/>
+      <c r="C43" s="62"/>
+      <c r="D43" s="62"/>
+      <c r="E43" s="62"/>
+      <c r="F43" s="62"/>
+      <c r="G43" s="62"/>
+      <c r="H43" s="62"/>
+      <c r="I43" s="63"/>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="22"/>
@@ -8465,63 +8474,63 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:J168"/>
   <sheetViews>
-    <sheetView zoomScale="72" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B157" sqref="B157"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="61"/>
+      <c r="B2" s="64"/>
       <c r="C2" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="61" t="s">
+      <c r="D2" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61" t="s">
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="61"/>
+      <c r="H2" s="64"/>
       <c r="I2" s="20" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="61"/>
+      <c r="B3" s="64"/>
       <c r="C3" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="61" t="s">
+      <c r="D3" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61" t="s">
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="H3" s="61"/>
+      <c r="H3" s="64"/>
       <c r="I3" s="20" t="s">
         <v>127</v>
       </c>
@@ -8533,28 +8542,28 @@
       <c r="B4" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="64"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="63"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="22"/>
@@ -8692,17 +8701,17 @@
       <c r="I17" s="27"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="62" t="s">
+      <c r="A18" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="63"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="64"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="63"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="22"/>
@@ -8848,17 +8857,17 @@
       <c r="I31" s="27"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="62" t="s">
+      <c r="A32" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="63"/>
-      <c r="C32" s="63"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="63"/>
-      <c r="G32" s="63"/>
-      <c r="H32" s="63"/>
-      <c r="I32" s="64"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="62"/>
+      <c r="I32" s="63"/>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="22"/>
@@ -9007,14 +9016,14 @@
       <c r="A46" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="B46" s="63"/>
-      <c r="C46" s="63"/>
-      <c r="D46" s="63"/>
-      <c r="E46" s="63"/>
-      <c r="F46" s="63"/>
-      <c r="G46" s="63"/>
-      <c r="H46" s="63"/>
-      <c r="I46" s="64"/>
+      <c r="B46" s="62"/>
+      <c r="C46" s="62"/>
+      <c r="D46" s="62"/>
+      <c r="E46" s="62"/>
+      <c r="F46" s="62"/>
+      <c r="G46" s="62"/>
+      <c r="H46" s="62"/>
+      <c r="I46" s="63"/>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="22"/>
@@ -9149,17 +9158,17 @@
       <c r="I58" s="27"/>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="62" t="s">
+      <c r="A59" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="B59" s="63"/>
-      <c r="C59" s="63"/>
-      <c r="D59" s="63"/>
-      <c r="E59" s="63"/>
-      <c r="F59" s="63"/>
-      <c r="G59" s="63"/>
-      <c r="H59" s="63"/>
-      <c r="I59" s="64"/>
+      <c r="B59" s="62"/>
+      <c r="C59" s="62"/>
+      <c r="D59" s="62"/>
+      <c r="E59" s="62"/>
+      <c r="F59" s="62"/>
+      <c r="G59" s="62"/>
+      <c r="H59" s="62"/>
+      <c r="I59" s="63"/>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="22"/>
@@ -9305,17 +9314,17 @@
       <c r="I72" s="27"/>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="62" t="s">
+      <c r="A73" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="B73" s="63"/>
-      <c r="C73" s="63"/>
-      <c r="D73" s="63"/>
-      <c r="E73" s="63"/>
-      <c r="F73" s="63"/>
-      <c r="G73" s="63"/>
-      <c r="H73" s="63"/>
-      <c r="I73" s="64"/>
+      <c r="B73" s="62"/>
+      <c r="C73" s="62"/>
+      <c r="D73" s="62"/>
+      <c r="E73" s="62"/>
+      <c r="F73" s="62"/>
+      <c r="G73" s="62"/>
+      <c r="H73" s="62"/>
+      <c r="I73" s="63"/>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="22"/>
@@ -9464,14 +9473,14 @@
       <c r="A87" s="65" t="s">
         <v>72</v>
       </c>
-      <c r="B87" s="63"/>
-      <c r="C87" s="63"/>
-      <c r="D87" s="63"/>
-      <c r="E87" s="63"/>
-      <c r="F87" s="63"/>
-      <c r="G87" s="63"/>
-      <c r="H87" s="63"/>
-      <c r="I87" s="64"/>
+      <c r="B87" s="62"/>
+      <c r="C87" s="62"/>
+      <c r="D87" s="62"/>
+      <c r="E87" s="62"/>
+      <c r="F87" s="62"/>
+      <c r="G87" s="62"/>
+      <c r="H87" s="62"/>
+      <c r="I87" s="63"/>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="22"/>
@@ -9606,17 +9615,17 @@
       <c r="I99" s="27"/>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="62" t="s">
+      <c r="A100" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="B100" s="63"/>
-      <c r="C100" s="63"/>
-      <c r="D100" s="63"/>
-      <c r="E100" s="63"/>
-      <c r="F100" s="63"/>
-      <c r="G100" s="63"/>
-      <c r="H100" s="63"/>
-      <c r="I100" s="64"/>
+      <c r="B100" s="62"/>
+      <c r="C100" s="62"/>
+      <c r="D100" s="62"/>
+      <c r="E100" s="62"/>
+      <c r="F100" s="62"/>
+      <c r="G100" s="62"/>
+      <c r="H100" s="62"/>
+      <c r="I100" s="63"/>
     </row>
     <row r="101" spans="1:9">
       <c r="A101" s="22"/>
@@ -9762,17 +9771,17 @@
       <c r="I113" s="27"/>
     </row>
     <row r="114" spans="1:9">
-      <c r="A114" s="62" t="s">
+      <c r="A114" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="B114" s="63"/>
-      <c r="C114" s="63"/>
-      <c r="D114" s="63"/>
-      <c r="E114" s="63"/>
-      <c r="F114" s="63"/>
-      <c r="G114" s="63"/>
-      <c r="H114" s="63"/>
-      <c r="I114" s="64"/>
+      <c r="B114" s="62"/>
+      <c r="C114" s="62"/>
+      <c r="D114" s="62"/>
+      <c r="E114" s="62"/>
+      <c r="F114" s="62"/>
+      <c r="G114" s="62"/>
+      <c r="H114" s="62"/>
+      <c r="I114" s="63"/>
     </row>
     <row r="115" spans="1:9">
       <c r="A115" s="22"/>
@@ -9921,14 +9930,14 @@
       <c r="A128" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="B128" s="63"/>
-      <c r="C128" s="63"/>
-      <c r="D128" s="63"/>
-      <c r="E128" s="63"/>
-      <c r="F128" s="63"/>
-      <c r="G128" s="63"/>
-      <c r="H128" s="63"/>
-      <c r="I128" s="64"/>
+      <c r="B128" s="62"/>
+      <c r="C128" s="62"/>
+      <c r="D128" s="62"/>
+      <c r="E128" s="62"/>
+      <c r="F128" s="62"/>
+      <c r="G128" s="62"/>
+      <c r="H128" s="62"/>
+      <c r="I128" s="63"/>
     </row>
     <row r="129" spans="1:9">
       <c r="A129" s="22"/>
@@ -10063,17 +10072,17 @@
       <c r="I140" s="27"/>
     </row>
     <row r="141" spans="1:9">
-      <c r="A141" s="62" t="s">
+      <c r="A141" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="B141" s="63"/>
-      <c r="C141" s="63"/>
-      <c r="D141" s="63"/>
-      <c r="E141" s="63"/>
-      <c r="F141" s="63"/>
-      <c r="G141" s="63"/>
-      <c r="H141" s="63"/>
-      <c r="I141" s="64"/>
+      <c r="B141" s="62"/>
+      <c r="C141" s="62"/>
+      <c r="D141" s="62"/>
+      <c r="E141" s="62"/>
+      <c r="F141" s="62"/>
+      <c r="G141" s="62"/>
+      <c r="H141" s="62"/>
+      <c r="I141" s="63"/>
     </row>
     <row r="142" spans="1:9">
       <c r="A142" s="22"/>
@@ -10219,17 +10228,17 @@
       <c r="I154" s="27"/>
     </row>
     <row r="155" spans="1:9">
-      <c r="A155" s="62" t="s">
+      <c r="A155" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="B155" s="63"/>
-      <c r="C155" s="63"/>
-      <c r="D155" s="63"/>
-      <c r="E155" s="63"/>
-      <c r="F155" s="63"/>
-      <c r="G155" s="63"/>
-      <c r="H155" s="63"/>
-      <c r="I155" s="64"/>
+      <c r="B155" s="62"/>
+      <c r="C155" s="62"/>
+      <c r="D155" s="62"/>
+      <c r="E155" s="62"/>
+      <c r="F155" s="62"/>
+      <c r="G155" s="62"/>
+      <c r="H155" s="62"/>
+      <c r="I155" s="63"/>
     </row>
     <row r="156" spans="1:9">
       <c r="A156" s="22"/>
@@ -10376,13 +10385,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A155:I155"/>
-    <mergeCell ref="A73:I73"/>
-    <mergeCell ref="A87:I87"/>
-    <mergeCell ref="A100:I100"/>
-    <mergeCell ref="A114:I114"/>
-    <mergeCell ref="A128:I128"/>
-    <mergeCell ref="A141:I141"/>
     <mergeCell ref="A59:I59"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:B2"/>
@@ -10396,6 +10398,13 @@
     <mergeCell ref="A18:I18"/>
     <mergeCell ref="A32:I32"/>
     <mergeCell ref="A46:I46"/>
+    <mergeCell ref="A155:I155"/>
+    <mergeCell ref="A73:I73"/>
+    <mergeCell ref="A87:I87"/>
+    <mergeCell ref="A100:I100"/>
+    <mergeCell ref="A114:I114"/>
+    <mergeCell ref="A128:I128"/>
+    <mergeCell ref="A141:I141"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10409,63 +10418,63 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="86" zoomScaleNormal="83" workbookViewId="0">
+    <sheetView topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N44" sqref="N44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="61"/>
+      <c r="B2" s="64"/>
       <c r="C2" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="61" t="s">
+      <c r="D2" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61" t="s">
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="61"/>
+      <c r="H2" s="64"/>
       <c r="I2" s="20" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="61"/>
+      <c r="B3" s="64"/>
       <c r="C3" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="61" t="s">
+      <c r="D3" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61" t="s">
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="H3" s="61"/>
+      <c r="H3" s="64"/>
       <c r="I3" s="20" t="s">
         <v>127</v>
       </c>
@@ -10477,28 +10486,28 @@
       <c r="B4" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="64" t="s">
         <v>80</v>
       </c>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="64"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="63"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="22"/>
@@ -10636,17 +10645,17 @@
       <c r="I17" s="27"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="62" t="s">
+      <c r="A18" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="B18" s="63"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="64"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="63"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="22"/>
@@ -10792,17 +10801,17 @@
       <c r="I31" s="27"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="62" t="s">
+      <c r="A32" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="B32" s="63"/>
-      <c r="C32" s="63"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="63"/>
-      <c r="G32" s="63"/>
-      <c r="H32" s="63"/>
-      <c r="I32" s="64"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="62"/>
+      <c r="I32" s="63"/>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="22"/>
@@ -10973,63 +10982,63 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:P59"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="56" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="61"/>
+      <c r="B2" s="64"/>
       <c r="C2" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="61" t="s">
+      <c r="D2" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61" t="s">
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="61"/>
+      <c r="H2" s="64"/>
       <c r="I2" s="20" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="61"/>
+      <c r="B3" s="64"/>
       <c r="C3" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="61" t="s">
+      <c r="D3" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61" t="s">
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="H3" s="61"/>
+      <c r="H3" s="64"/>
       <c r="I3" s="20" t="s">
         <v>127</v>
       </c>
@@ -11041,28 +11050,28 @@
       <c r="B4" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="64" t="s">
         <v>85</v>
       </c>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="64"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="63"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="22"/>
@@ -11200,17 +11209,17 @@
       <c r="I17" s="27"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="62" t="s">
+      <c r="A18" s="61" t="s">
         <v>87</v>
       </c>
-      <c r="B18" s="63"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="64"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="63"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="22"/>
@@ -11356,17 +11365,17 @@
       <c r="I31" s="27"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="62" t="s">
+      <c r="A32" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="B32" s="63"/>
-      <c r="C32" s="63"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="63"/>
-      <c r="G32" s="63"/>
-      <c r="H32" s="63"/>
-      <c r="I32" s="64"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="62"/>
+      <c r="I32" s="63"/>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="22"/>
@@ -11542,63 +11551,63 @@
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:I87"/>
   <sheetViews>
-    <sheetView zoomScale="106" workbookViewId="0">
+    <sheetView topLeftCell="A73" zoomScale="106" workbookViewId="0">
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="61"/>
+      <c r="B2" s="64"/>
       <c r="C2" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="61" t="s">
+      <c r="D2" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61" t="s">
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="61"/>
+      <c r="H2" s="64"/>
       <c r="I2" s="20" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="61"/>
+      <c r="B3" s="64"/>
       <c r="C3" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="D3" s="61" t="s">
+      <c r="D3" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61" t="s">
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="H3" s="61"/>
+      <c r="H3" s="64"/>
       <c r="I3" s="20" t="s">
         <v>128</v>
       </c>
@@ -11610,28 +11619,28 @@
       <c r="B4" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="61" t="s">
         <v>94</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="64"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="63"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="22"/>
@@ -11769,14 +11778,14 @@
       <c r="A18" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="B18" s="63"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="64"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="63"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="22"/>
@@ -11925,14 +11934,14 @@
       <c r="A32" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="B32" s="63"/>
-      <c r="C32" s="63"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="63"/>
-      <c r="G32" s="63"/>
-      <c r="H32" s="63"/>
-      <c r="I32" s="64"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="62"/>
+      <c r="I32" s="63"/>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="22"/>
@@ -12081,14 +12090,14 @@
       <c r="A46" s="66" t="s">
         <v>97</v>
       </c>
-      <c r="B46" s="63"/>
-      <c r="C46" s="63"/>
-      <c r="D46" s="63"/>
-      <c r="E46" s="63"/>
-      <c r="F46" s="63"/>
-      <c r="G46" s="63"/>
-      <c r="H46" s="63"/>
-      <c r="I46" s="64"/>
+      <c r="B46" s="62"/>
+      <c r="C46" s="62"/>
+      <c r="D46" s="62"/>
+      <c r="E46" s="62"/>
+      <c r="F46" s="62"/>
+      <c r="G46" s="62"/>
+      <c r="H46" s="62"/>
+      <c r="I46" s="63"/>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="22"/>
@@ -12237,14 +12246,14 @@
       <c r="A60" s="66" t="s">
         <v>98</v>
       </c>
-      <c r="B60" s="63"/>
-      <c r="C60" s="63"/>
-      <c r="D60" s="63"/>
-      <c r="E60" s="63"/>
-      <c r="F60" s="63"/>
-      <c r="G60" s="63"/>
-      <c r="H60" s="63"/>
-      <c r="I60" s="64"/>
+      <c r="B60" s="62"/>
+      <c r="C60" s="62"/>
+      <c r="D60" s="62"/>
+      <c r="E60" s="62"/>
+      <c r="F60" s="62"/>
+      <c r="G60" s="62"/>
+      <c r="H60" s="62"/>
+      <c r="I60" s="63"/>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="22"/>
@@ -12393,14 +12402,14 @@
       <c r="A74" s="66" t="s">
         <v>99</v>
       </c>
-      <c r="B74" s="63"/>
-      <c r="C74" s="63"/>
-      <c r="D74" s="63"/>
-      <c r="E74" s="63"/>
-      <c r="F74" s="63"/>
-      <c r="G74" s="63"/>
-      <c r="H74" s="63"/>
-      <c r="I74" s="64"/>
+      <c r="B74" s="62"/>
+      <c r="C74" s="62"/>
+      <c r="D74" s="62"/>
+      <c r="E74" s="62"/>
+      <c r="F74" s="62"/>
+      <c r="G74" s="62"/>
+      <c r="H74" s="62"/>
+      <c r="I74" s="63"/>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="22"/>
@@ -12547,6 +12556,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:H3"/>
     <mergeCell ref="A74:I74"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="A5:I5"/>
@@ -12554,13 +12570,6 @@
     <mergeCell ref="A32:I32"/>
     <mergeCell ref="A46:I46"/>
     <mergeCell ref="A60:I60"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:H3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12571,65 +12580,65 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet25"/>
-  <dimension ref="A1:I325"/>
+  <dimension ref="A1:J325"/>
   <sheetViews>
-    <sheetView topLeftCell="A306" zoomScale="77" workbookViewId="0">
-      <selection activeCell="K334" sqref="K334"/>
+    <sheetView tabSelected="1" topLeftCell="A181" zoomScale="77" workbookViewId="0">
+      <selection activeCell="M190" sqref="M190"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="61"/>
+      <c r="B2" s="64"/>
       <c r="C2" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="61" t="s">
+      <c r="D2" s="64" t="s">
         <v>101</v>
       </c>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61" t="s">
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="61"/>
+      <c r="H2" s="64"/>
       <c r="I2" s="20" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="61"/>
+      <c r="B3" s="64"/>
       <c r="C3" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="D3" s="61" t="s">
+      <c r="D3" s="64" t="s">
         <v>100</v>
       </c>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61" t="s">
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64" t="s">
         <v>103</v>
       </c>
-      <c r="H3" s="61"/>
+      <c r="H3" s="64"/>
       <c r="I3" s="20" t="s">
         <v>128</v>
       </c>
@@ -12641,28 +12650,28 @@
       <c r="B4" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="64" t="s">
         <v>105</v>
       </c>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="66" t="s">
         <v>106</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="64"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="63"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="22"/>
@@ -12800,14 +12809,14 @@
       <c r="A18" s="66" t="s">
         <v>107</v>
       </c>
-      <c r="B18" s="63"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="64"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="63"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="22"/>
@@ -12956,14 +12965,14 @@
       <c r="A32" s="66" t="s">
         <v>108</v>
       </c>
-      <c r="B32" s="63"/>
-      <c r="C32" s="63"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="63"/>
-      <c r="G32" s="63"/>
-      <c r="H32" s="63"/>
-      <c r="I32" s="64"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="62"/>
+      <c r="I32" s="63"/>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="22"/>
@@ -13112,14 +13121,14 @@
       <c r="A46" s="66" t="s">
         <v>109</v>
       </c>
-      <c r="B46" s="63"/>
-      <c r="C46" s="63"/>
-      <c r="D46" s="63"/>
-      <c r="E46" s="63"/>
-      <c r="F46" s="63"/>
-      <c r="G46" s="63"/>
-      <c r="H46" s="63"/>
-      <c r="I46" s="64"/>
+      <c r="B46" s="62"/>
+      <c r="C46" s="62"/>
+      <c r="D46" s="62"/>
+      <c r="E46" s="62"/>
+      <c r="F46" s="62"/>
+      <c r="G46" s="62"/>
+      <c r="H46" s="62"/>
+      <c r="I46" s="63"/>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="22"/>
@@ -13268,14 +13277,14 @@
       <c r="A60" s="66" t="s">
         <v>110</v>
       </c>
-      <c r="B60" s="63"/>
-      <c r="C60" s="63"/>
-      <c r="D60" s="63"/>
-      <c r="E60" s="63"/>
-      <c r="F60" s="63"/>
-      <c r="G60" s="63"/>
-      <c r="H60" s="63"/>
-      <c r="I60" s="64"/>
+      <c r="B60" s="62"/>
+      <c r="C60" s="62"/>
+      <c r="D60" s="62"/>
+      <c r="E60" s="62"/>
+      <c r="F60" s="62"/>
+      <c r="G60" s="62"/>
+      <c r="H60" s="62"/>
+      <c r="I60" s="63"/>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="22"/>
@@ -13424,14 +13433,14 @@
       <c r="A74" s="66" t="s">
         <v>111</v>
       </c>
-      <c r="B74" s="63"/>
-      <c r="C74" s="63"/>
-      <c r="D74" s="63"/>
-      <c r="E74" s="63"/>
-      <c r="F74" s="63"/>
-      <c r="G74" s="63"/>
-      <c r="H74" s="63"/>
-      <c r="I74" s="64"/>
+      <c r="B74" s="62"/>
+      <c r="C74" s="62"/>
+      <c r="D74" s="62"/>
+      <c r="E74" s="62"/>
+      <c r="F74" s="62"/>
+      <c r="G74" s="62"/>
+      <c r="H74" s="62"/>
+      <c r="I74" s="63"/>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="22"/>
@@ -13580,14 +13589,14 @@
       <c r="A88" s="66" t="s">
         <v>112</v>
       </c>
-      <c r="B88" s="63"/>
-      <c r="C88" s="63"/>
-      <c r="D88" s="63"/>
-      <c r="E88" s="63"/>
-      <c r="F88" s="63"/>
-      <c r="G88" s="63"/>
-      <c r="H88" s="63"/>
-      <c r="I88" s="64"/>
+      <c r="B88" s="62"/>
+      <c r="C88" s="62"/>
+      <c r="D88" s="62"/>
+      <c r="E88" s="62"/>
+      <c r="F88" s="62"/>
+      <c r="G88" s="62"/>
+      <c r="H88" s="62"/>
+      <c r="I88" s="63"/>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="22"/>
@@ -13736,14 +13745,14 @@
       <c r="A102" s="66" t="s">
         <v>113</v>
       </c>
-      <c r="B102" s="63"/>
-      <c r="C102" s="63"/>
-      <c r="D102" s="63"/>
-      <c r="E102" s="63"/>
-      <c r="F102" s="63"/>
-      <c r="G102" s="63"/>
-      <c r="H102" s="63"/>
-      <c r="I102" s="64"/>
+      <c r="B102" s="62"/>
+      <c r="C102" s="62"/>
+      <c r="D102" s="62"/>
+      <c r="E102" s="62"/>
+      <c r="F102" s="62"/>
+      <c r="G102" s="62"/>
+      <c r="H102" s="62"/>
+      <c r="I102" s="63"/>
     </row>
     <row r="103" spans="1:9">
       <c r="A103" s="22"/>
@@ -13892,14 +13901,14 @@
       <c r="A116" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="B116" s="63"/>
-      <c r="C116" s="63"/>
-      <c r="D116" s="63"/>
-      <c r="E116" s="63"/>
-      <c r="F116" s="63"/>
-      <c r="G116" s="63"/>
-      <c r="H116" s="63"/>
-      <c r="I116" s="64"/>
+      <c r="B116" s="62"/>
+      <c r="C116" s="62"/>
+      <c r="D116" s="62"/>
+      <c r="E116" s="62"/>
+      <c r="F116" s="62"/>
+      <c r="G116" s="62"/>
+      <c r="H116" s="62"/>
+      <c r="I116" s="63"/>
     </row>
     <row r="117" spans="1:9">
       <c r="A117" s="22"/>
@@ -14048,14 +14057,14 @@
       <c r="A130" s="66" t="s">
         <v>115</v>
       </c>
-      <c r="B130" s="63"/>
-      <c r="C130" s="63"/>
-      <c r="D130" s="63"/>
-      <c r="E130" s="63"/>
-      <c r="F130" s="63"/>
-      <c r="G130" s="63"/>
-      <c r="H130" s="63"/>
-      <c r="I130" s="64"/>
+      <c r="B130" s="62"/>
+      <c r="C130" s="62"/>
+      <c r="D130" s="62"/>
+      <c r="E130" s="62"/>
+      <c r="F130" s="62"/>
+      <c r="G130" s="62"/>
+      <c r="H130" s="62"/>
+      <c r="I130" s="63"/>
     </row>
     <row r="131" spans="1:9">
       <c r="A131" s="22"/>
@@ -14204,14 +14213,14 @@
       <c r="A144" s="66" t="s">
         <v>116</v>
       </c>
-      <c r="B144" s="63"/>
-      <c r="C144" s="63"/>
-      <c r="D144" s="63"/>
-      <c r="E144" s="63"/>
-      <c r="F144" s="63"/>
-      <c r="G144" s="63"/>
-      <c r="H144" s="63"/>
-      <c r="I144" s="64"/>
+      <c r="B144" s="62"/>
+      <c r="C144" s="62"/>
+      <c r="D144" s="62"/>
+      <c r="E144" s="62"/>
+      <c r="F144" s="62"/>
+      <c r="G144" s="62"/>
+      <c r="H144" s="62"/>
+      <c r="I144" s="63"/>
     </row>
     <row r="145" spans="1:9">
       <c r="A145" s="22"/>
@@ -14360,14 +14369,14 @@
       <c r="A158" s="66" t="s">
         <v>117</v>
       </c>
-      <c r="B158" s="63"/>
-      <c r="C158" s="63"/>
-      <c r="D158" s="63"/>
-      <c r="E158" s="63"/>
-      <c r="F158" s="63"/>
-      <c r="G158" s="63"/>
-      <c r="H158" s="63"/>
-      <c r="I158" s="64"/>
+      <c r="B158" s="62"/>
+      <c r="C158" s="62"/>
+      <c r="D158" s="62"/>
+      <c r="E158" s="62"/>
+      <c r="F158" s="62"/>
+      <c r="G158" s="62"/>
+      <c r="H158" s="62"/>
+      <c r="I158" s="63"/>
     </row>
     <row r="159" spans="1:9">
       <c r="A159" s="22"/>
@@ -14516,14 +14525,14 @@
       <c r="A172" s="66" t="s">
         <v>118</v>
       </c>
-      <c r="B172" s="63"/>
-      <c r="C172" s="63"/>
-      <c r="D172" s="63"/>
-      <c r="E172" s="63"/>
-      <c r="F172" s="63"/>
-      <c r="G172" s="63"/>
-      <c r="H172" s="63"/>
-      <c r="I172" s="64"/>
+      <c r="B172" s="62"/>
+      <c r="C172" s="62"/>
+      <c r="D172" s="62"/>
+      <c r="E172" s="62"/>
+      <c r="F172" s="62"/>
+      <c r="G172" s="62"/>
+      <c r="H172" s="62"/>
+      <c r="I172" s="63"/>
     </row>
     <row r="173" spans="1:9">
       <c r="A173" s="22"/>
@@ -14569,7 +14578,7 @@
       <c r="H176" s="23"/>
       <c r="I176" s="24"/>
     </row>
-    <row r="177" spans="1:9">
+    <row r="177" spans="1:10">
       <c r="A177" s="22"/>
       <c r="B177" s="23"/>
       <c r="C177" s="23"/>
@@ -14580,7 +14589,7 @@
       <c r="H177" s="23"/>
       <c r="I177" s="24"/>
     </row>
-    <row r="178" spans="1:9">
+    <row r="178" spans="1:10">
       <c r="A178" s="22"/>
       <c r="B178" s="23"/>
       <c r="C178" s="23"/>
@@ -14591,7 +14600,7 @@
       <c r="H178" s="23"/>
       <c r="I178" s="24"/>
     </row>
-    <row r="179" spans="1:9">
+    <row r="179" spans="1:10">
       <c r="A179" s="22"/>
       <c r="B179" s="23"/>
       <c r="C179" s="23"/>
@@ -14602,7 +14611,7 @@
       <c r="H179" s="23"/>
       <c r="I179" s="24"/>
     </row>
-    <row r="180" spans="1:9">
+    <row r="180" spans="1:10">
       <c r="A180" s="22"/>
       <c r="B180" s="23"/>
       <c r="C180" s="23"/>
@@ -14613,7 +14622,7 @@
       <c r="H180" s="23"/>
       <c r="I180" s="24"/>
     </row>
-    <row r="181" spans="1:9">
+    <row r="181" spans="1:10">
       <c r="A181" s="22"/>
       <c r="B181" s="23"/>
       <c r="C181" s="23"/>
@@ -14624,7 +14633,7 @@
       <c r="H181" s="23"/>
       <c r="I181" s="24"/>
     </row>
-    <row r="182" spans="1:9">
+    <row r="182" spans="1:10">
       <c r="A182" s="22"/>
       <c r="B182" s="23"/>
       <c r="C182" s="23"/>
@@ -14635,7 +14644,7 @@
       <c r="H182" s="23"/>
       <c r="I182" s="24"/>
     </row>
-    <row r="183" spans="1:9">
+    <row r="183" spans="1:10">
       <c r="A183" s="22"/>
       <c r="B183" s="23"/>
       <c r="C183" s="23"/>
@@ -14646,7 +14655,7 @@
       <c r="H183" s="23"/>
       <c r="I183" s="24"/>
     </row>
-    <row r="184" spans="1:9">
+    <row r="184" spans="1:10">
       <c r="A184" s="22"/>
       <c r="B184" s="23"/>
       <c r="C184" s="23"/>
@@ -14657,7 +14666,7 @@
       <c r="H184" s="23"/>
       <c r="I184" s="24"/>
     </row>
-    <row r="185" spans="1:9">
+    <row r="185" spans="1:10">
       <c r="A185" s="25"/>
       <c r="B185" s="26"/>
       <c r="C185" s="26"/>
@@ -14668,20 +14677,20 @@
       <c r="H185" s="26"/>
       <c r="I185" s="27"/>
     </row>
-    <row r="186" spans="1:9">
+    <row r="186" spans="1:10">
       <c r="A186" s="66" t="s">
         <v>119</v>
       </c>
-      <c r="B186" s="63"/>
-      <c r="C186" s="63"/>
-      <c r="D186" s="63"/>
-      <c r="E186" s="63"/>
-      <c r="F186" s="63"/>
-      <c r="G186" s="63"/>
-      <c r="H186" s="63"/>
-      <c r="I186" s="64"/>
-    </row>
-    <row r="187" spans="1:9">
+      <c r="B186" s="62"/>
+      <c r="C186" s="62"/>
+      <c r="D186" s="62"/>
+      <c r="E186" s="62"/>
+      <c r="F186" s="62"/>
+      <c r="G186" s="62"/>
+      <c r="H186" s="62"/>
+      <c r="I186" s="63"/>
+    </row>
+    <row r="187" spans="1:10">
       <c r="A187" s="22"/>
       <c r="B187" s="23"/>
       <c r="C187" s="23"/>
@@ -14691,8 +14700,9 @@
       <c r="G187" s="23"/>
       <c r="H187" s="23"/>
       <c r="I187" s="24"/>
-    </row>
-    <row r="188" spans="1:9">
+      <c r="J187" s="67"/>
+    </row>
+    <row r="188" spans="1:10">
       <c r="A188" s="22"/>
       <c r="B188" s="23"/>
       <c r="C188" s="23"/>
@@ -14702,8 +14712,9 @@
       <c r="G188" s="23"/>
       <c r="H188" s="23"/>
       <c r="I188" s="24"/>
-    </row>
-    <row r="189" spans="1:9">
+      <c r="J188" s="67"/>
+    </row>
+    <row r="189" spans="1:10">
       <c r="A189" s="22"/>
       <c r="B189" s="23"/>
       <c r="C189" s="23"/>
@@ -14713,8 +14724,9 @@
       <c r="G189" s="23"/>
       <c r="H189" s="23"/>
       <c r="I189" s="24"/>
-    </row>
-    <row r="190" spans="1:9">
+      <c r="J189" s="67"/>
+    </row>
+    <row r="190" spans="1:10">
       <c r="A190" s="22"/>
       <c r="B190" s="23"/>
       <c r="C190" s="23"/>
@@ -14724,8 +14736,9 @@
       <c r="G190" s="23"/>
       <c r="H190" s="23"/>
       <c r="I190" s="24"/>
-    </row>
-    <row r="191" spans="1:9">
+      <c r="J190" s="67"/>
+    </row>
+    <row r="191" spans="1:10">
       <c r="A191" s="22"/>
       <c r="B191" s="23"/>
       <c r="C191" s="23"/>
@@ -14735,8 +14748,9 @@
       <c r="G191" s="23"/>
       <c r="H191" s="23"/>
       <c r="I191" s="24"/>
-    </row>
-    <row r="192" spans="1:9">
+      <c r="J191" s="67"/>
+    </row>
+    <row r="192" spans="1:10">
       <c r="A192" s="22"/>
       <c r="B192" s="23"/>
       <c r="C192" s="23"/>
@@ -14746,8 +14760,9 @@
       <c r="G192" s="23"/>
       <c r="H192" s="23"/>
       <c r="I192" s="24"/>
-    </row>
-    <row r="193" spans="1:9">
+      <c r="J192" s="67"/>
+    </row>
+    <row r="193" spans="1:10">
       <c r="A193" s="22"/>
       <c r="B193" s="23"/>
       <c r="C193" s="23"/>
@@ -14757,8 +14772,9 @@
       <c r="G193" s="23"/>
       <c r="H193" s="23"/>
       <c r="I193" s="24"/>
-    </row>
-    <row r="194" spans="1:9">
+      <c r="J193" s="67"/>
+    </row>
+    <row r="194" spans="1:10">
       <c r="A194" s="22"/>
       <c r="B194" s="23"/>
       <c r="C194" s="23"/>
@@ -14768,8 +14784,9 @@
       <c r="G194" s="23"/>
       <c r="H194" s="23"/>
       <c r="I194" s="24"/>
-    </row>
-    <row r="195" spans="1:9">
+      <c r="J194" s="67"/>
+    </row>
+    <row r="195" spans="1:10">
       <c r="A195" s="22"/>
       <c r="B195" s="23"/>
       <c r="C195" s="23"/>
@@ -14779,8 +14796,9 @@
       <c r="G195" s="23"/>
       <c r="H195" s="23"/>
       <c r="I195" s="24"/>
-    </row>
-    <row r="196" spans="1:9">
+      <c r="J195" s="67"/>
+    </row>
+    <row r="196" spans="1:10">
       <c r="A196" s="22"/>
       <c r="B196" s="23"/>
       <c r="C196" s="23"/>
@@ -14790,8 +14808,9 @@
       <c r="G196" s="23"/>
       <c r="H196" s="23"/>
       <c r="I196" s="24"/>
-    </row>
-    <row r="197" spans="1:9">
+      <c r="J196" s="67"/>
+    </row>
+    <row r="197" spans="1:10">
       <c r="A197" s="22"/>
       <c r="B197" s="23"/>
       <c r="C197" s="23"/>
@@ -14801,8 +14820,9 @@
       <c r="G197" s="23"/>
       <c r="H197" s="23"/>
       <c r="I197" s="24"/>
-    </row>
-    <row r="198" spans="1:9">
+      <c r="J197" s="67"/>
+    </row>
+    <row r="198" spans="1:10">
       <c r="A198" s="22"/>
       <c r="B198" s="23"/>
       <c r="C198" s="23"/>
@@ -14812,8 +14832,9 @@
       <c r="G198" s="23"/>
       <c r="H198" s="23"/>
       <c r="I198" s="24"/>
-    </row>
-    <row r="199" spans="1:9">
+      <c r="J198" s="67"/>
+    </row>
+    <row r="199" spans="1:10">
       <c r="A199" s="25"/>
       <c r="B199" s="26"/>
       <c r="C199" s="26"/>
@@ -14823,21 +14844,23 @@
       <c r="G199" s="26"/>
       <c r="H199" s="26"/>
       <c r="I199" s="27"/>
-    </row>
-    <row r="200" spans="1:9">
+      <c r="J199" s="67"/>
+    </row>
+    <row r="200" spans="1:10">
       <c r="A200" s="66" t="s">
         <v>120</v>
       </c>
-      <c r="B200" s="63"/>
-      <c r="C200" s="63"/>
-      <c r="D200" s="63"/>
-      <c r="E200" s="63"/>
-      <c r="F200" s="63"/>
-      <c r="G200" s="63"/>
-      <c r="H200" s="63"/>
-      <c r="I200" s="64"/>
-    </row>
-    <row r="201" spans="1:9">
+      <c r="B200" s="62"/>
+      <c r="C200" s="62"/>
+      <c r="D200" s="62"/>
+      <c r="E200" s="62"/>
+      <c r="F200" s="62"/>
+      <c r="G200" s="62"/>
+      <c r="H200" s="62"/>
+      <c r="I200" s="63"/>
+      <c r="J200" s="67"/>
+    </row>
+    <row r="201" spans="1:10">
       <c r="A201" s="22"/>
       <c r="B201" s="23"/>
       <c r="C201" s="23"/>
@@ -14848,7 +14871,7 @@
       <c r="H201" s="23"/>
       <c r="I201" s="24"/>
     </row>
-    <row r="202" spans="1:9">
+    <row r="202" spans="1:10">
       <c r="A202" s="22"/>
       <c r="B202" s="23"/>
       <c r="C202" s="23"/>
@@ -14859,7 +14882,7 @@
       <c r="H202" s="23"/>
       <c r="I202" s="24"/>
     </row>
-    <row r="203" spans="1:9">
+    <row r="203" spans="1:10">
       <c r="A203" s="22"/>
       <c r="B203" s="23"/>
       <c r="C203" s="23"/>
@@ -14870,7 +14893,7 @@
       <c r="H203" s="23"/>
       <c r="I203" s="24"/>
     </row>
-    <row r="204" spans="1:9">
+    <row r="204" spans="1:10">
       <c r="A204" s="22"/>
       <c r="B204" s="23"/>
       <c r="C204" s="23"/>
@@ -14881,7 +14904,7 @@
       <c r="H204" s="23"/>
       <c r="I204" s="24"/>
     </row>
-    <row r="205" spans="1:9">
+    <row r="205" spans="1:10">
       <c r="A205" s="22"/>
       <c r="B205" s="23"/>
       <c r="C205" s="23"/>
@@ -14892,7 +14915,7 @@
       <c r="H205" s="23"/>
       <c r="I205" s="24"/>
     </row>
-    <row r="206" spans="1:9">
+    <row r="206" spans="1:10">
       <c r="A206" s="22"/>
       <c r="B206" s="23"/>
       <c r="C206" s="23"/>
@@ -14903,7 +14926,7 @@
       <c r="H206" s="23"/>
       <c r="I206" s="24"/>
     </row>
-    <row r="207" spans="1:9">
+    <row r="207" spans="1:10">
       <c r="A207" s="22"/>
       <c r="B207" s="23"/>
       <c r="C207" s="23"/>
@@ -14914,7 +14937,7 @@
       <c r="H207" s="23"/>
       <c r="I207" s="24"/>
     </row>
-    <row r="208" spans="1:9">
+    <row r="208" spans="1:10">
       <c r="A208" s="22"/>
       <c r="B208" s="23"/>
       <c r="C208" s="23"/>
@@ -14984,14 +15007,14 @@
       <c r="A214" s="66" t="s">
         <v>121</v>
       </c>
-      <c r="B214" s="63"/>
-      <c r="C214" s="63"/>
-      <c r="D214" s="63"/>
-      <c r="E214" s="63"/>
-      <c r="F214" s="63"/>
-      <c r="G214" s="63"/>
-      <c r="H214" s="63"/>
-      <c r="I214" s="64"/>
+      <c r="B214" s="62"/>
+      <c r="C214" s="62"/>
+      <c r="D214" s="62"/>
+      <c r="E214" s="62"/>
+      <c r="F214" s="62"/>
+      <c r="G214" s="62"/>
+      <c r="H214" s="62"/>
+      <c r="I214" s="63"/>
     </row>
     <row r="215" spans="1:9">
       <c r="A215" s="22"/>
@@ -15140,14 +15163,14 @@
       <c r="A228" s="66" t="s">
         <v>122</v>
       </c>
-      <c r="B228" s="63"/>
-      <c r="C228" s="63"/>
-      <c r="D228" s="63"/>
-      <c r="E228" s="63"/>
-      <c r="F228" s="63"/>
-      <c r="G228" s="63"/>
-      <c r="H228" s="63"/>
-      <c r="I228" s="64"/>
+      <c r="B228" s="62"/>
+      <c r="C228" s="62"/>
+      <c r="D228" s="62"/>
+      <c r="E228" s="62"/>
+      <c r="F228" s="62"/>
+      <c r="G228" s="62"/>
+      <c r="H228" s="62"/>
+      <c r="I228" s="63"/>
     </row>
     <row r="229" spans="1:9">
       <c r="A229" s="22"/>
@@ -15296,14 +15319,14 @@
       <c r="A242" s="66" t="s">
         <v>123</v>
       </c>
-      <c r="B242" s="63"/>
-      <c r="C242" s="63"/>
-      <c r="D242" s="63"/>
-      <c r="E242" s="63"/>
-      <c r="F242" s="63"/>
-      <c r="G242" s="63"/>
-      <c r="H242" s="63"/>
-      <c r="I242" s="64"/>
+      <c r="B242" s="62"/>
+      <c r="C242" s="62"/>
+      <c r="D242" s="62"/>
+      <c r="E242" s="62"/>
+      <c r="F242" s="62"/>
+      <c r="G242" s="62"/>
+      <c r="H242" s="62"/>
+      <c r="I242" s="63"/>
     </row>
     <row r="243" spans="1:9">
       <c r="A243" s="22"/>
@@ -15452,14 +15475,14 @@
       <c r="A256" s="66" t="s">
         <v>124</v>
       </c>
-      <c r="B256" s="63"/>
-      <c r="C256" s="63"/>
-      <c r="D256" s="63"/>
-      <c r="E256" s="63"/>
-      <c r="F256" s="63"/>
-      <c r="G256" s="63"/>
-      <c r="H256" s="63"/>
-      <c r="I256" s="64"/>
+      <c r="B256" s="62"/>
+      <c r="C256" s="62"/>
+      <c r="D256" s="62"/>
+      <c r="E256" s="62"/>
+      <c r="F256" s="62"/>
+      <c r="G256" s="62"/>
+      <c r="H256" s="62"/>
+      <c r="I256" s="63"/>
     </row>
     <row r="257" spans="1:9">
       <c r="A257" s="22"/>
@@ -15608,14 +15631,14 @@
       <c r="A270" s="66" t="s">
         <v>125</v>
       </c>
-      <c r="B270" s="63"/>
-      <c r="C270" s="63"/>
-      <c r="D270" s="63"/>
-      <c r="E270" s="63"/>
-      <c r="F270" s="63"/>
-      <c r="G270" s="63"/>
-      <c r="H270" s="63"/>
-      <c r="I270" s="64"/>
+      <c r="B270" s="62"/>
+      <c r="C270" s="62"/>
+      <c r="D270" s="62"/>
+      <c r="E270" s="62"/>
+      <c r="F270" s="62"/>
+      <c r="G270" s="62"/>
+      <c r="H270" s="62"/>
+      <c r="I270" s="63"/>
     </row>
     <row r="271" spans="1:9">
       <c r="A271" s="22"/>
@@ -15764,14 +15787,14 @@
       <c r="A284" s="66" t="s">
         <v>126</v>
       </c>
-      <c r="B284" s="63"/>
-      <c r="C284" s="63"/>
-      <c r="D284" s="63"/>
-      <c r="E284" s="63"/>
-      <c r="F284" s="63"/>
-      <c r="G284" s="63"/>
-      <c r="H284" s="63"/>
-      <c r="I284" s="64"/>
+      <c r="B284" s="62"/>
+      <c r="C284" s="62"/>
+      <c r="D284" s="62"/>
+      <c r="E284" s="62"/>
+      <c r="F284" s="62"/>
+      <c r="G284" s="62"/>
+      <c r="H284" s="62"/>
+      <c r="I284" s="63"/>
     </row>
     <row r="285" spans="1:9">
       <c r="A285" s="22"/>
@@ -15920,14 +15943,14 @@
       <c r="A298" s="66" t="s">
         <v>133</v>
       </c>
-      <c r="B298" s="63"/>
-      <c r="C298" s="63"/>
-      <c r="D298" s="63"/>
-      <c r="E298" s="63"/>
-      <c r="F298" s="63"/>
-      <c r="G298" s="63"/>
-      <c r="H298" s="63"/>
-      <c r="I298" s="64"/>
+      <c r="B298" s="62"/>
+      <c r="C298" s="62"/>
+      <c r="D298" s="62"/>
+      <c r="E298" s="62"/>
+      <c r="F298" s="62"/>
+      <c r="G298" s="62"/>
+      <c r="H298" s="62"/>
+      <c r="I298" s="63"/>
     </row>
     <row r="299" spans="1:9">
       <c r="A299" s="22"/>
@@ -16076,14 +16099,14 @@
       <c r="A312" s="66" t="s">
         <v>134</v>
       </c>
-      <c r="B312" s="63"/>
-      <c r="C312" s="63"/>
-      <c r="D312" s="63"/>
-      <c r="E312" s="63"/>
-      <c r="F312" s="63"/>
-      <c r="G312" s="63"/>
-      <c r="H312" s="63"/>
-      <c r="I312" s="64"/>
+      <c r="B312" s="62"/>
+      <c r="C312" s="62"/>
+      <c r="D312" s="62"/>
+      <c r="E312" s="62"/>
+      <c r="F312" s="62"/>
+      <c r="G312" s="62"/>
+      <c r="H312" s="62"/>
+      <c r="I312" s="63"/>
     </row>
     <row r="313" spans="1:9">
       <c r="A313" s="22"/>
@@ -16230,17 +16253,13 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A298:I298"/>
-    <mergeCell ref="A312:I312"/>
-    <mergeCell ref="A242:I242"/>
-    <mergeCell ref="A256:I256"/>
-    <mergeCell ref="A270:I270"/>
-    <mergeCell ref="A284:I284"/>
-    <mergeCell ref="A158:I158"/>
-    <mergeCell ref="A172:I172"/>
-    <mergeCell ref="A186:I186"/>
-    <mergeCell ref="A200:I200"/>
-    <mergeCell ref="A214:I214"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:H3"/>
     <mergeCell ref="A228:I228"/>
     <mergeCell ref="A144:I144"/>
     <mergeCell ref="C4:I4"/>
@@ -16254,13 +16273,17 @@
     <mergeCell ref="A102:I102"/>
     <mergeCell ref="A116:I116"/>
     <mergeCell ref="A130:I130"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="A158:I158"/>
+    <mergeCell ref="A172:I172"/>
+    <mergeCell ref="A186:I186"/>
+    <mergeCell ref="A200:I200"/>
+    <mergeCell ref="A214:I214"/>
+    <mergeCell ref="A298:I298"/>
+    <mergeCell ref="A312:I312"/>
+    <mergeCell ref="A242:I242"/>
+    <mergeCell ref="A256:I256"/>
+    <mergeCell ref="A270:I270"/>
+    <mergeCell ref="A284:I284"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
